--- a/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
+++ b/ANÁLISE/ESPECIFICAÇÃO CASOS DE USO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>NOME CASO DE USO</t>
   </si>
@@ -315,6 +315,68 @@
 6. Sistema carrega DropDown List com as cidades do estado escolhido no passo 5.
 7. Usuário clica em salvar.
 8. Sistema apresenta mensagem de sucesso na gravação</t>
+  </si>
+  <si>
+    <t>Aprovar Sugestão</t>
+  </si>
+  <si>
+    <t>Permitir a aprovação de sugestões</t>
+  </si>
+  <si>
+    <t>Este UC será executado cada vez que uma sugestão necessitar ser aprovada/recusada</t>
+  </si>
+  <si>
+    <t>Conselheiro</t>
+  </si>
+  <si>
+    <t>Estar logado no sistema, ter perfil de Conselheiro e ter sugestão previamente cadastrada.</t>
+  </si>
+  <si>
+    <t>Após a execução desse UC a sugestão deverá ser aprovada/recusada.</t>
+  </si>
+  <si>
+    <t>1. Usuário clica na aba Aprova Sugestão.
+2. Sistema carrega Data Grid com sugestões sem resposta.(E01)
+3. Usuário seleciona a sugestão.
+4. Sistema carrega a descrição da sugestão.
+5. Usuário aprova sugestão. (A01).
+6. Usuário salva alteração.
+7. Sistema exibe mensagem de sucesso.</t>
+  </si>
+  <si>
+    <t>A01 - Usuário não aprova sugestão.
+   1. Usuário não aprova sugestão.
+   2. Sistema libera TextArea de motivo de descarte.
+   3. Usuário entra com informações de motivo de descarte.
+   4. Retorna ao passo 4 do fluxo principal.</t>
+  </si>
+  <si>
+    <t>Mantrer Ata</t>
+  </si>
+  <si>
+    <t>Permitir o cadastro de Ata para determinda reunião</t>
+  </si>
+  <si>
+    <t>Este UC será executado cada vez que uma reunião necessitar que um ata seja cadastrada</t>
+  </si>
+  <si>
+    <t>Estar logado no sistema, ter perfil de Conselheiro e ter reunião previamente cadastrada.</t>
+  </si>
+  <si>
+    <t>Após execução desse UC uma ata deverá estar registrada para determinada reuinião.</t>
+  </si>
+  <si>
+    <t>1. Usuário clica na aba Atas.
+2. Sistema carrega Data grid com reuniões já efetuadas.(E01)
+3. Usuário clica sobre a reunião desejada.
+4. Sistema carrega outro DataGrid com a ata.
+5. Usuário clica no botão Adicionar Item Ata.
+6. Sistema insere nova linha no Data Grid.
+7. Usuário insere informações e salva.
+8. Sistema exibe mensagem de sucesso.</t>
+  </si>
+  <si>
+    <t>RN01 - Ter reunião previamente efetuada.</t>
   </si>
 </sst>
 </file>
@@ -1044,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,33 +1468,81 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="13"/>
+    <row r="10" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="13"/>
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
